--- a/DOWNLOADS/EDITAIS/U_926475_E_900072025_29-09-2025_09h00m/U_926475_E_900072025_29-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_926475_E_900072025_29-09-2025_09h00m/U_926475_E_900072025_29-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Nº</t>
   </si>
@@ -55,22 +55,10 @@
     <t>Fonte Alimentação Ininterrupta Fonte Alimentação Ininterrupta Tensão Entrada: 120V, Bateria: Selada, Capacidade Nominal: 3KVA, Gabinete: Rack Padrão 19 X 2u De Altura</t>
   </si>
   <si>
-    <t>NOBREAK 3Kva: Potênciamínima:3 Kva; Tomadas: no mínimo 8 tomadas de saída obedecendo o Padrão brasileiro de Plugues e Tomadas; Cabo de força: mínimo 1,2 metros; Padrão mínimo e Tipo de onda: senoidal pura; Tensão nominal de entrada: (110 a 127 V) ou bivolt automático de entrada 110 a 127/220; Tensão nominal de saída: 110 a 127 V; Fator de Potência de entrada: + 0,99; Fator de Potência de saída: + 0.8; Baterias Internas: mínimo (2 baterias seladas) de 12V; Recarga automática da bateria; Alarme audiovisual para queda de rede, subtensão e fim do tempo de autonomia; Mínimo de 6 tomadas de: 10A e 2 tomadas de 20A 3 pinos conforme NBR 14136; Proteção Contra Descarga Total Das Baterias; Frequência Nominal Da Rede: 50Hz / 60Hz. Garantia de 24 (vinte e quatro) meses.</t>
-  </si>
-  <si>
-    <t>NOBREAK PDV 3Kva: Potênciamínima aceitável 3 Kva; Cabo de força: mínimo 1,2 metros; Tipo de onda: senoidal pura; Tensão nominal de entrada: (110 a 127 V) ou bivolt automático de entrada 110 a 127/220; Tensão nominal de saída: 110 a 127 V; Fator de Potência de entrada: + 0,99; Fator de Potência de saída: + 0.8; Baterias Internas: mínimo (2 baterias seladas) de 12V; Recarga automática da bateria; Alarme audiovisual para queda de rede, subtensão e fim do tempo de autonomia; Mínimo de 6 tomadas de: compostas de tomadas do tipo 10A e 20A, 3 pinos conforme NBR 14136; Proteção Contra Descarga Total Das Baterias; Frequência Nominal Da Rede: 50Hz / 60Hz. Bypass automático; Gerenciamento local e remoto; Gabinete metálico para rack com altura até 3U Garantia de 24 (vinte e quatro) meses.</t>
-  </si>
-  <si>
-    <t>3584,31</t>
-  </si>
-  <si>
-    <t>5121,41</t>
-  </si>
-  <si>
-    <t>64517,58</t>
-  </si>
-  <si>
-    <t>30728,46</t>
+    <t>●  Potência mínima: 3 Kva;</t>
+  </si>
+  <si>
+    <t>●  Potência mínima aceitável:      Unidade    06</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -485,20 +473,17 @@
       <c r="D2">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>64517.58</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -514,20 +499,17 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>30728.46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
